--- a/outputs-r202/test-f__Erysipelotrichaceae.xlsx
+++ b/outputs-r202/test-f__Erysipelotrichaceae.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="62">
   <si>
     <t>Row</t>
   </si>
@@ -220,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -230,14 +230,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -279,7 +283,7 @@
     <col min="27" max="27" width="17.7109375" customWidth="true"/>
     <col min="28" max="28" width="15.5703125" customWidth="true"/>
     <col min="29" max="29" width="15.5703125" customWidth="true"/>
-    <col min="30" max="30" width="15.7109375" customWidth="true"/>
+    <col min="30" max="30" width="15.5703125" customWidth="true"/>
     <col min="31" max="31" width="15.5703125" customWidth="true"/>
     <col min="32" max="32" width="15.5703125" customWidth="true"/>
     <col min="33" max="33" width="15.5703125" customWidth="true"/>
@@ -287,2556 +291,2556 @@
     <col min="35" max="35" width="15.5703125" customWidth="true"/>
     <col min="36" max="36" width="15.5703125" customWidth="true"/>
     <col min="37" max="37" width="15.5703125" customWidth="true"/>
-    <col min="38" max="38" width="15.7109375" customWidth="true"/>
+    <col min="38" max="38" width="15.5703125" customWidth="true"/>
     <col min="39" max="39" width="15.5703125" customWidth="true"/>
     <col min="40" max="40" width="15.5703125" customWidth="true"/>
-    <col min="41" max="41" width="15.5703125" customWidth="true"/>
+    <col min="41" max="41" width="15.7109375" customWidth="true"/>
     <col min="42" max="42" width="15.5703125" customWidth="true"/>
     <col min="43" max="43" width="15.5703125" customWidth="true"/>
     <col min="44" max="44" width="10.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="C2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="D2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="E2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="F2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="G2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="H2">
-        <v>0.99454939359596983</v>
+        <v>0.99475459978945147</v>
       </c>
       <c r="I2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="J2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="K2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="L2">
-        <v>4.6019619367197468e-12</v>
+        <v>1.8831950873196248e-12</v>
       </c>
       <c r="M2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="N2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="O2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="P2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="Q2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="R2">
-        <v>0.0019626995171689891</v>
+        <v>0.00051882294840697551</v>
       </c>
       <c r="S2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="T2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="U2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="V2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="W2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="X2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="Y2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="Z2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="AA2">
-        <v>0.0034871308391424445</v>
+        <v>0.0047249748958335756</v>
       </c>
       <c r="AB2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="AC2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="AD2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="AE2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="AF2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="AG2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="AH2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="AI2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="AJ2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="AK2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="AL2">
-        <v>7.9962131760521082e-09</v>
+        <v>3.5431928246241028e-09</v>
       </c>
       <c r="AM2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="AN2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="AO2">
-        <v>7.6804610444704678e-07</v>
+        <v>1.5988204326885887e-06</v>
       </c>
       <c r="AP2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="AQ2">
-        <v>2.2202215196279336e-14</v>
+        <v>2.2202123731248294e-14</v>
       </c>
       <c r="AR2">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.6027223076801285e-14</v>
+        <v>2.2283811808904418e-14</v>
       </c>
       <c r="C3">
-        <v>4.6027223076801285e-14</v>
+        <v>2.2283811808904418e-14</v>
       </c>
       <c r="D3">
-        <v>4.6027223076801285e-14</v>
+        <v>2.2283811808904418e-14</v>
       </c>
       <c r="E3">
-        <v>4.6027223076801032e-14</v>
+        <v>2.2283811808904418e-14</v>
       </c>
       <c r="F3">
-        <v>4.6027223076801032e-14</v>
+        <v>2.2283811808904418e-14</v>
       </c>
       <c r="G3">
-        <v>4.6027223076801083e-14</v>
+        <v>2.2283811808904418e-14</v>
       </c>
       <c r="H3">
-        <v>0.9670176630743057</v>
+        <v>0.97732837503330938</v>
       </c>
       <c r="I3">
-        <v>4.6027223076801083e-14</v>
+        <v>2.2283811808904418e-14</v>
       </c>
       <c r="J3">
-        <v>4.6027223076801083e-14</v>
+        <v>2.2283811808904418e-14</v>
       </c>
       <c r="K3">
-        <v>4.6027223076801032e-14</v>
+        <v>2.2283811808904418e-14</v>
       </c>
       <c r="L3">
-        <v>2.5215754017639938e-12</v>
+        <v>1.0156503217156313e-12</v>
       </c>
       <c r="M3">
-        <v>4.6027223076801133e-14</v>
+        <v>2.2283811808904418e-14</v>
       </c>
       <c r="N3">
-        <v>4.6027223076801184e-14</v>
+        <v>2.2283811808904418e-14</v>
       </c>
       <c r="O3">
-        <v>4.6027223076801184e-14</v>
+        <v>2.2283811808904418e-14</v>
       </c>
       <c r="P3">
-        <v>4.6027223076801133e-14</v>
+        <v>6.7335497229238744e-13</v>
       </c>
       <c r="Q3">
-        <v>0.030937087868236391</v>
+        <v>0.01911562617882577</v>
       </c>
       <c r="R3">
-        <v>1.360597866011788e-09</v>
+        <v>7.1380585879111824e-11</v>
       </c>
       <c r="S3">
-        <v>4.6027223076800881e-14</v>
+        <v>2.2283811808904421e-14</v>
       </c>
       <c r="T3">
-        <v>4.6027223076800982e-14</v>
+        <v>2.2283811808904421e-14</v>
       </c>
       <c r="U3">
-        <v>4.6027223076800982e-14</v>
+        <v>2.2283811808904421e-14</v>
       </c>
       <c r="V3">
-        <v>4.6027223076800982e-14</v>
+        <v>2.2283811808904421e-14</v>
       </c>
       <c r="W3">
-        <v>4.6027223076800982e-14</v>
+        <v>2.2283811808904421e-14</v>
       </c>
       <c r="X3">
-        <v>4.6027223076800982e-14</v>
+        <v>2.2283811808904421e-14</v>
       </c>
       <c r="Y3">
-        <v>4.6027223076800982e-14</v>
+        <v>2.2283811808904421e-14</v>
       </c>
       <c r="Z3">
-        <v>4.6027223076800982e-14</v>
+        <v>2.2283811808904421e-14</v>
       </c>
       <c r="AA3">
-        <v>0.0020416400304095329</v>
+        <v>0.0035544688840162758</v>
       </c>
       <c r="AB3">
-        <v>4.6027223076800982e-14</v>
+        <v>2.2283811808904421e-14</v>
       </c>
       <c r="AC3">
-        <v>4.6027223076800881e-14</v>
+        <v>2.2283811808904421e-14</v>
       </c>
       <c r="AD3">
-        <v>2.509672143016129e-11</v>
+        <v>1.1373262585908216e-11</v>
       </c>
       <c r="AE3">
-        <v>4.6027223076800881e-14</v>
+        <v>2.2283811808904421e-14</v>
       </c>
       <c r="AF3">
-        <v>4.6027223076800982e-14</v>
+        <v>2.2283811808904421e-14</v>
       </c>
       <c r="AG3">
-        <v>4.6027223076800982e-14</v>
+        <v>2.2283811808904421e-14</v>
       </c>
       <c r="AH3">
-        <v>4.6027223076800982e-14</v>
+        <v>2.2283811808904421e-14</v>
       </c>
       <c r="AI3">
-        <v>4.6027223076801102e-14</v>
+        <v>2.2283811808904421e-14</v>
       </c>
       <c r="AJ3">
-        <v>4.6027223076801102e-14</v>
+        <v>2.2283811808904421e-14</v>
       </c>
       <c r="AK3">
-        <v>4.6027223076801152e-14</v>
+        <v>2.2283811808904421e-14</v>
       </c>
       <c r="AL3">
-        <v>1.7499384052221993e-08</v>
+        <v>1.2814772532096452e-08</v>
       </c>
       <c r="AM3">
-        <v>4.6027223076801152e-14</v>
+        <v>2.2283811808904421e-14</v>
       </c>
       <c r="AN3">
-        <v>4.6027223076801102e-14</v>
+        <v>2.2283811808904421e-14</v>
       </c>
       <c r="AO3">
-        <v>3.5901378819305091e-06</v>
+        <v>1.51700389687609e-06</v>
       </c>
       <c r="AP3">
-        <v>4.6027223076801001e-14</v>
+        <v>2.2283811808904421e-14</v>
       </c>
       <c r="AQ3">
-        <v>4.6027223076801102e-14</v>
+        <v>2.2283811808904421e-14</v>
       </c>
       <c r="AR3">
         <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="C4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="D4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="E4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="F4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="G4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="H4">
-        <v>0.98524617503939083</v>
+        <v>0.99459040930435494</v>
       </c>
       <c r="I4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="J4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="K4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="L4">
-        <v>5.0756434819987372e-12</v>
+        <v>2.0522335194874697e-12</v>
       </c>
       <c r="M4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="N4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="O4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="P4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="Q4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="R4">
-        <v>0.0050825868416938674</v>
+        <v>0.00094657099147464391</v>
       </c>
       <c r="S4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="T4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="U4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="V4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="W4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="X4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="Y4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="Z4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="AA4">
-        <v>0.0096710543740227955</v>
+        <v>0.004461796784451892</v>
       </c>
       <c r="AB4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="AC4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="AD4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="AE4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="AF4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="AG4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="AH4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="AI4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="AJ4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="AK4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="AL4">
-        <v>7.0318819894976974e-09</v>
+        <v>3.7372273189763325e-09</v>
       </c>
       <c r="AM4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="AN4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="AO4">
-        <v>1.7670713540135786e-07</v>
+        <v>1.2191796398636891e-06</v>
       </c>
       <c r="AP4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="AQ4">
-        <v>2.2203241340199234e-14</v>
+        <v>2.2202164654092723e-14</v>
       </c>
       <c r="AR4">
         <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4.1139311141731269e-12</v>
+        <v>2.1823577006867722e-12</v>
       </c>
       <c r="C5">
-        <v>4.1139311141731269e-12</v>
+        <v>2.1823577006867722e-12</v>
       </c>
       <c r="D5">
-        <v>4.1139311141731237e-12</v>
+        <v>2.1823577006867609e-12</v>
       </c>
       <c r="E5">
-        <v>4.1139311141731035e-12</v>
+        <v>2.1823577006867593e-12</v>
       </c>
       <c r="F5">
-        <v>4.1139311141731035e-12</v>
+        <v>2.1823577006867593e-12</v>
       </c>
       <c r="G5">
-        <v>4.1139311141730946e-12</v>
+        <v>2.1823577006867593e-12</v>
       </c>
       <c r="H5">
-        <v>0.88111159902751413</v>
+        <v>0.94045560293273256</v>
       </c>
       <c r="I5">
-        <v>4.1139311141730946e-12</v>
+        <v>2.1823577006867593e-12</v>
       </c>
       <c r="J5">
-        <v>4.1139311141730946e-12</v>
+        <v>2.1823577006867577e-12</v>
       </c>
       <c r="K5">
-        <v>4.113931114173097e-12</v>
+        <v>2.1823577006867593e-12</v>
       </c>
       <c r="L5">
-        <v>8.7732203462820182e-08</v>
+        <v>4.769668580489822e-09</v>
       </c>
       <c r="M5">
-        <v>4.1139311141731172e-12</v>
+        <v>2.1823577006867593e-12</v>
       </c>
       <c r="N5">
-        <v>4.1139311141731172e-12</v>
+        <v>2.1823577006867658e-12</v>
       </c>
       <c r="O5">
-        <v>4.1139311141731172e-12</v>
+        <v>2.1823577006867593e-12</v>
       </c>
       <c r="P5">
-        <v>0.00042102535013850337</v>
+        <v>1.100831125603067e-05</v>
       </c>
       <c r="Q5">
-        <v>4.1139311141731067e-12</v>
+        <v>2.1823577006863829e-12</v>
       </c>
       <c r="R5">
-        <v>8.5452262604707921e-10</v>
+        <v>1.8924294349049581e-09</v>
       </c>
       <c r="S5">
-        <v>4.1139311141735833e-12</v>
+        <v>2.182357700686378e-12</v>
       </c>
       <c r="T5">
-        <v>4.1139311141735866e-12</v>
+        <v>2.1823577006863845e-12</v>
       </c>
       <c r="U5">
-        <v>4.1139311141735866e-12</v>
+        <v>2.1823577006863845e-12</v>
       </c>
       <c r="V5">
-        <v>4.1139311141735866e-12</v>
+        <v>2.1823577006863845e-12</v>
       </c>
       <c r="W5">
-        <v>4.1139311141735866e-12</v>
+        <v>2.1823577006863845e-12</v>
       </c>
       <c r="X5">
-        <v>4.1139311141735866e-12</v>
+        <v>2.1823577006863845e-12</v>
       </c>
       <c r="Y5">
-        <v>4.1139311141735866e-12</v>
+        <v>2.1823577006863845e-12</v>
       </c>
       <c r="Z5">
-        <v>4.1139311141735833e-12</v>
+        <v>2.1823577006863797e-12</v>
       </c>
       <c r="AA5">
-        <v>0.10992520743217793</v>
+        <v>0.042961214587502725</v>
       </c>
       <c r="AB5">
-        <v>4.1139311141735833e-12</v>
+        <v>2.1823577006863764e-12</v>
       </c>
       <c r="AC5">
-        <v>4.1139311141735833e-12</v>
+        <v>2.1823577006863748e-12</v>
       </c>
       <c r="AD5">
-        <v>6.0285086036349214e-07</v>
+        <v>1.4494215115257138e-07</v>
       </c>
       <c r="AE5">
-        <v>4.1139311141735833e-12</v>
+        <v>2.1823577006863748e-12</v>
       </c>
       <c r="AF5">
-        <v>4.113931114173593e-12</v>
+        <v>2.182357700686378e-12</v>
       </c>
       <c r="AG5">
-        <v>4.113931114173593e-12</v>
+        <v>2.182357700686378e-12</v>
       </c>
       <c r="AH5">
-        <v>4.113931114173593e-12</v>
+        <v>2.182357700686378e-12</v>
       </c>
       <c r="AI5">
-        <v>4.1139311141735833e-12</v>
+        <v>2.1823577006863768e-12</v>
       </c>
       <c r="AJ5">
-        <v>4.1139311141735833e-12</v>
+        <v>2.1823577006863768e-12</v>
       </c>
       <c r="AK5">
-        <v>4.1139311141735858e-12</v>
+        <v>2.1823577006863801e-12</v>
       </c>
       <c r="AL5">
-        <v>6.2002656138934615e-05</v>
+        <v>1.9333721130863597e-05</v>
       </c>
       <c r="AM5">
-        <v>4.1139311141735825e-12</v>
+        <v>2.1823577006863784e-12</v>
       </c>
       <c r="AN5">
-        <v>4.1139311141735801e-12</v>
+        <v>2.1823577006863784e-12</v>
       </c>
       <c r="AO5">
-        <v>0.0084794739565700692</v>
+        <v>0.016552688768927352</v>
       </c>
       <c r="AP5">
-        <v>4.1139311141735801e-12</v>
+        <v>2.1823577006863784e-12</v>
       </c>
       <c r="AQ5">
-        <v>4.1139311141735817e-12</v>
+        <v>2.1823577006863817e-12</v>
       </c>
       <c r="AR5">
         <v>7</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="C6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="D6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="E6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="F6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="G6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="H6">
-        <v>2.9283735644556862e-07</v>
+        <v>5.4549616933098149e-07</v>
       </c>
       <c r="I6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="J6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="K6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="L6">
-        <v>0.24923942158248991</v>
+        <v>0.29448747484380516</v>
       </c>
       <c r="M6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="N6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="O6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="P6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="Q6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="R6">
-        <v>6.5868096450581541e-08</v>
+        <v>1.5258599913807657e-08</v>
       </c>
       <c r="S6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="T6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="U6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="V6">
-        <v>0.0054169609956591838</v>
+        <v>0.0060678523385530861</v>
       </c>
       <c r="W6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="X6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="Y6">
-        <v>0.24923954780333554</v>
+        <v>0.29451768521686444</v>
       </c>
       <c r="Z6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="AA6">
-        <v>0.24923819611252393</v>
+        <v>0.29451509979036122</v>
       </c>
       <c r="AB6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="AC6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="AD6">
-        <v>0.24686078214274684</v>
+        <v>0.11040984206910788</v>
       </c>
       <c r="AE6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="AF6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="AG6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="AH6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="AI6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="AJ6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="AK6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="AL6">
-        <v>4.7326570070840579e-06</v>
+        <v>1.4849857473296022e-06</v>
       </c>
       <c r="AM6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="AN6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="AO6">
-        <v>2.3076511327308671e-14</v>
+        <v>3.7412390213351547e-14</v>
       </c>
       <c r="AP6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="AQ6">
-        <v>2.3076511327308671e-14</v>
+        <v>2.2856733561543893e-14</v>
       </c>
       <c r="AR6">
         <v>24</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="C7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="D7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="E7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="F7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="G7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="H7">
-        <v>0.005959184652672222</v>
+        <v>0.0066190836274462195</v>
       </c>
       <c r="I7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="J7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="K7">
-        <v>0.98010603514500261</v>
+        <v>0.97823778364435809</v>
       </c>
       <c r="L7">
-        <v>3.1220056289976578e-10</v>
+        <v>4.4578087890099497e-09</v>
       </c>
       <c r="M7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="N7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="O7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="P7">
-        <v>2.2111780868815432e-05</v>
+        <v>3.4845924586870108e-05</v>
       </c>
       <c r="Q7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="R7">
-        <v>4.6331065811148351e-10</v>
+        <v>1.0345339691206305e-09</v>
       </c>
       <c r="S7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="T7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="U7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="V7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="W7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="X7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="Y7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="Z7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="AA7">
-        <v>1.3965899181407774e-05</v>
+        <v>6.8522205366976184e-05</v>
       </c>
       <c r="AB7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="AC7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="AD7">
-        <v>3.7581179279881237e-08</v>
+        <v>4.682306094833649e-07</v>
       </c>
       <c r="AE7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="AF7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="AG7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="AH7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="AI7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="AJ7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="AK7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="AL7">
-        <v>4.3610068044406441e-07</v>
+        <v>1.8974568974071694e-06</v>
       </c>
       <c r="AM7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="AN7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="AO7">
-        <v>0.013898228064171417</v>
+        <v>0.015037393417659303</v>
       </c>
       <c r="AP7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="AQ7">
-        <v>2.2203460893434353e-14</v>
+        <v>2.220357123891454e-14</v>
       </c>
       <c r="AR7">
         <v>10</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="C8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="D8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="E8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="F8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="G8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="H8">
-        <v>1.4252283104819854e-07</v>
+        <v>3.6671403830666575e-07</v>
       </c>
       <c r="I8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="J8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="K8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="L8">
-        <v>0.24866765429191084</v>
+        <v>0.25182445277105264</v>
       </c>
       <c r="M8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="N8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="O8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="P8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="Q8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="R8">
-        <v>5.0644692210225215e-08</v>
+        <v>4.887358087740022e-08</v>
       </c>
       <c r="S8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="T8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="U8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="V8">
-        <v>0.0054032392085199034</v>
+        <v>0.0054790751135469617</v>
       </c>
       <c r="W8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="X8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="Y8">
-        <v>0.24866766456154504</v>
+        <v>0.25182522539601915</v>
       </c>
       <c r="Z8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="AA8">
-        <v>0.24866753872823891</v>
+        <v>0.25182454864486392</v>
       </c>
       <c r="AB8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="AC8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="AD8">
-        <v>0.24857592166477563</v>
+        <v>0.23904141497953588</v>
       </c>
       <c r="AE8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="AF8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="AG8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="AH8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="AI8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="AJ8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="AK8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="AL8">
-        <v>1.7788376701731918e-05</v>
+        <v>4.8675065779358317e-06</v>
       </c>
       <c r="AM8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="AN8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="AO8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="AP8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="AQ8">
-        <v>2.3078731370459787e-14</v>
+        <v>2.3066419255106065e-14</v>
       </c>
       <c r="AR8">
         <v>24</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.1870547442838003e-09</v>
+        <v>1.5986712798359839e-09</v>
       </c>
       <c r="C9">
-        <v>2.1870547442838003e-09</v>
+        <v>1.5986712798359839e-09</v>
       </c>
       <c r="D9">
-        <v>2.1870547442838003e-09</v>
+        <v>1.5986712798359814e-09</v>
       </c>
       <c r="E9">
-        <v>2.1870547442838003e-09</v>
+        <v>1.5986712798359797e-09</v>
       </c>
       <c r="F9">
-        <v>2.1870547442838003e-09</v>
+        <v>1.5986712798359797e-09</v>
       </c>
       <c r="G9">
-        <v>2.1870547442837995e-09</v>
+        <v>1.5986712798359802e-09</v>
       </c>
       <c r="H9">
-        <v>0.17011654924075734</v>
+        <v>0.17039074956704009</v>
       </c>
       <c r="I9">
-        <v>2.1870547442837995e-09</v>
+        <v>1.5986712798359802e-09</v>
       </c>
       <c r="J9">
-        <v>2.1870547442837995e-09</v>
+        <v>1.5986712798359797e-09</v>
       </c>
       <c r="K9">
-        <v>2.1870547442837966e-09</v>
+        <v>1.5986712798359762e-09</v>
       </c>
       <c r="L9">
-        <v>0.0030994291153589753</v>
+        <v>0.0066087611929874571</v>
       </c>
       <c r="M9">
-        <v>2.1870547442837966e-09</v>
+        <v>1.5986712798359797e-09</v>
       </c>
       <c r="N9">
-        <v>2.1870547442838003e-09</v>
+        <v>1.5986712798359797e-09</v>
       </c>
       <c r="O9">
-        <v>2.1870547442838003e-09</v>
+        <v>1.5986712798359797e-09</v>
       </c>
       <c r="P9">
-        <v>0.14753353438388095</v>
+        <v>0.14578461728142442</v>
       </c>
       <c r="Q9">
-        <v>2.1870547442837966e-09</v>
+        <v>1.5986712798359797e-09</v>
       </c>
       <c r="R9">
-        <v>0.00031277153262995034</v>
+        <v>0.00023371835268383572</v>
       </c>
       <c r="S9">
-        <v>2.1870547442838111e-09</v>
+        <v>1.5986712798359797e-09</v>
       </c>
       <c r="T9">
-        <v>2.1870547442838111e-09</v>
+        <v>1.5986712798359797e-09</v>
       </c>
       <c r="U9">
-        <v>2.1870547442838111e-09</v>
+        <v>1.5986712798359797e-09</v>
       </c>
       <c r="V9">
-        <v>2.1870547442838065e-09</v>
+        <v>1.5986712798359758e-09</v>
       </c>
       <c r="W9">
-        <v>0.16537043179925084</v>
+        <v>0.16508824212095749</v>
       </c>
       <c r="X9">
-        <v>2.1870547442838065e-09</v>
+        <v>1.5986712798359797e-09</v>
       </c>
       <c r="Y9">
-        <v>2.1870547442838115e-09</v>
+        <v>1.5986712798359797e-09</v>
       </c>
       <c r="Z9">
-        <v>2.1870547442838094e-09</v>
+        <v>1.5986712798359797e-09</v>
       </c>
       <c r="AA9">
-        <v>0.1468680841647633</v>
+        <v>0.14672860766680906</v>
       </c>
       <c r="AB9">
-        <v>2.1870547442838094e-09</v>
+        <v>1.5986712798359797e-09</v>
       </c>
       <c r="AC9">
-        <v>2.1870547442838094e-09</v>
+        <v>1.5986712798359797e-09</v>
       </c>
       <c r="AD9">
-        <v>0.088845621992261856</v>
+        <v>0.093468760049506175</v>
       </c>
       <c r="AE9">
-        <v>2.1870547442838094e-09</v>
+        <v>1.5986712798359797e-09</v>
       </c>
       <c r="AF9">
-        <v>2.1870547442838115e-09</v>
+        <v>1.5986712798359797e-09</v>
       </c>
       <c r="AG9">
-        <v>2.1870547442838115e-09</v>
+        <v>1.5986712798359797e-09</v>
       </c>
       <c r="AH9">
-        <v>2.1870547442838115e-09</v>
+        <v>1.5986712798359797e-09</v>
       </c>
       <c r="AI9">
-        <v>2.1870547442838007e-09</v>
+        <v>1.5986712798359878e-09</v>
       </c>
       <c r="AJ9">
-        <v>2.1870547442837978e-09</v>
+        <v>1.5986712798359866e-09</v>
       </c>
       <c r="AK9">
-        <v>2.1870547442837978e-09</v>
+        <v>1.5986712798359866e-09</v>
       </c>
       <c r="AL9">
-        <v>0.11978452238502933</v>
+        <v>0.11382062815836347</v>
       </c>
       <c r="AM9">
-        <v>2.1870547442837949e-09</v>
+        <v>1.5986712798359826e-09</v>
       </c>
       <c r="AN9">
-        <v>2.1870547442837949e-09</v>
+        <v>1.5986712798359826e-09</v>
       </c>
       <c r="AO9">
-        <v>0.15806898321326099</v>
+        <v>0.15787586285407526</v>
       </c>
       <c r="AP9">
-        <v>2.1870547442837945e-09</v>
+        <v>1.5986712798359876e-09</v>
       </c>
       <c r="AQ9">
-        <v>2.1870547442838015e-09</v>
+        <v>1.5986712798359876e-09</v>
       </c>
       <c r="AR9">
         <v>7</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.15684575345850732</v>
+        <v>0.98526131093275005</v>
       </c>
       <c r="C10">
-        <v>5.0937676315769527e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="D10">
-        <v>5.0937676315769403e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="E10">
-        <v>5.0937676315769403e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="F10">
-        <v>5.0937676315769403e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="G10">
-        <v>5.0937676315769527e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="H10">
-        <v>0.13549246858172059</v>
+        <v>0.0025892917751621542</v>
       </c>
       <c r="I10">
-        <v>5.0937676315769527e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="J10">
-        <v>5.0937676315769527e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="K10">
-        <v>5.0937676315769635e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="L10">
-        <v>0.0003186736306081937</v>
+        <v>7.0353064439073157e-10</v>
       </c>
       <c r="M10">
-        <v>5.0937676315769635e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="N10">
-        <v>5.0937676315769635e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="O10">
-        <v>5.0937676315769635e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="P10">
-        <v>0.077713903748531266</v>
+        <v>1.6335120075933097e-07</v>
       </c>
       <c r="Q10">
-        <v>5.0937676315769635e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="R10">
-        <v>0.062505444309575359</v>
+        <v>7.5523853587698743e-07</v>
       </c>
       <c r="S10">
-        <v>5.0937676315769254e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="T10">
-        <v>5.0937676315769254e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="U10">
-        <v>5.0937676315769254e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="V10">
-        <v>5.0937676315769254e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="W10">
-        <v>5.0937676315769254e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="X10">
-        <v>5.0937676315769254e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="Y10">
-        <v>5.0937676315769254e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="Z10">
-        <v>5.0937676315769254e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="AA10">
-        <v>0.13246129070550339</v>
+        <v>0.001001869197977815</v>
       </c>
       <c r="AB10">
-        <v>5.0937676315769254e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="AC10">
-        <v>5.0937676315769254e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="AD10">
-        <v>0.080029815254737929</v>
+        <v>3.0831225832128989e-07</v>
       </c>
       <c r="AE10">
-        <v>5.0937676315769287e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="AF10">
-        <v>0.14834404534979825</v>
+        <v>0.011051995270561495</v>
       </c>
       <c r="AG10">
-        <v>5.0937676315769494e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="AH10">
-        <v>5.0937676315769494e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="AI10">
-        <v>5.093767631576975e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="AJ10">
-        <v>5.093767631576975e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="AK10">
-        <v>5.093767631576975e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="AL10">
-        <v>0.074838607575374902</v>
+        <v>5.148715778350746e-07</v>
       </c>
       <c r="AM10">
-        <v>5.093767631576975e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="AN10">
-        <v>5.093767631576975e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="AO10">
-        <v>0.13144983438507918</v>
+        <v>9.3790345734556267e-05</v>
       </c>
       <c r="AP10">
-        <v>5.093767631576975e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="AQ10">
-        <v>5.093767631576975e-09</v>
+        <v>2.2203019129123655e-14</v>
       </c>
       <c r="AR10">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.023316900205108404</v>
+        <v>3.6104959668430336e-11</v>
       </c>
       <c r="C11">
-        <v>0.023316900205108404</v>
+        <v>3.6104959668430336e-11</v>
       </c>
       <c r="D11">
-        <v>0.023316900205108404</v>
+        <v>3.6104959668430336e-11</v>
       </c>
       <c r="E11">
-        <v>0.023316900205108404</v>
+        <v>3.6104959668430252e-11</v>
       </c>
       <c r="F11">
-        <v>0.023316900205108404</v>
+        <v>3.6104959668430252e-11</v>
       </c>
       <c r="G11">
-        <v>0.023316900205108404</v>
+        <v>3.6104959668430271e-11</v>
       </c>
       <c r="H11">
-        <v>0.023427486332364935</v>
+        <v>0.13282239936251308</v>
       </c>
       <c r="I11">
-        <v>0.023316900205108359</v>
+        <v>3.6104959668430271e-11</v>
       </c>
       <c r="J11">
-        <v>0.023316900205108359</v>
+        <v>3.6104959668430239e-11</v>
       </c>
       <c r="K11">
-        <v>0.023316900205108345</v>
+        <v>3.6104959668430323e-11</v>
       </c>
       <c r="L11">
-        <v>0.023316900205108345</v>
+        <v>3.6104959668432759e-11</v>
       </c>
       <c r="M11">
-        <v>0.023316900205108345</v>
+        <v>3.6104959668430323e-11</v>
       </c>
       <c r="N11">
-        <v>0.023316900205108345</v>
+        <v>3.6104959668430323e-11</v>
       </c>
       <c r="O11">
-        <v>0.023316900205108345</v>
+        <v>3.6104959668430323e-11</v>
       </c>
       <c r="P11">
-        <v>0.023316900205108345</v>
+        <v>3.6104959668430323e-11</v>
       </c>
       <c r="Q11">
-        <v>0.023316900205108345</v>
+        <v>3.610495966843029e-11</v>
       </c>
       <c r="R11">
-        <v>0.023316900205647178</v>
+        <v>2.0854308594073788e-07</v>
       </c>
       <c r="S11">
-        <v>0.023316900205108366</v>
+        <v>3.6104959668430245e-11</v>
       </c>
       <c r="T11">
-        <v>0.038142793962335796</v>
+        <v>3.6104959668430303e-11</v>
       </c>
       <c r="U11">
-        <v>0.02331690020510839</v>
+        <v>3.6104959668430245e-11</v>
       </c>
       <c r="V11">
-        <v>0.02331690020510839</v>
+        <v>0.29053298500233748</v>
       </c>
       <c r="W11">
-        <v>0.02331690020510839</v>
+        <v>3.6104959668430303e-11</v>
       </c>
       <c r="X11">
-        <v>0.02331690020510839</v>
+        <v>3.6104959668430342e-11</v>
       </c>
       <c r="Y11">
-        <v>0.02331690020510839</v>
+        <v>3.6104959668430342e-11</v>
       </c>
       <c r="Z11">
-        <v>0.02331690020510839</v>
+        <v>3.6104959668430342e-11</v>
       </c>
       <c r="AA11">
-        <v>0.028995781271644327</v>
+        <v>0.57261833478059909</v>
       </c>
       <c r="AB11">
-        <v>0.02331690020510839</v>
+        <v>3.6104959668430342e-11</v>
       </c>
       <c r="AC11">
-        <v>0.02331690020510839</v>
+        <v>3.6104959668430245e-11</v>
       </c>
       <c r="AD11">
-        <v>0.023316900214674665</v>
+        <v>2.4652798062291581e-06</v>
       </c>
       <c r="AE11">
-        <v>0.023316900205108244</v>
+        <v>3.6104959668430245e-11</v>
       </c>
       <c r="AF11">
-        <v>0.02331690020510839</v>
+        <v>3.6104959668430342e-11</v>
       </c>
       <c r="AG11">
-        <v>0.02331690020510839</v>
+        <v>3.6104959668430342e-11</v>
       </c>
       <c r="AH11">
-        <v>0.02331690020510839</v>
+        <v>3.6104959668430342e-11</v>
       </c>
       <c r="AI11">
-        <v>0.023316900205108227</v>
+        <v>3.6104959668430239e-11</v>
       </c>
       <c r="AJ11">
-        <v>0.023316900205108227</v>
+        <v>3.6104959668430239e-11</v>
       </c>
       <c r="AK11">
-        <v>0.023316900205108227</v>
+        <v>3.6104959668430239e-11</v>
       </c>
       <c r="AL11">
-        <v>0.023317770854671183</v>
+        <v>0.0033142268758247764</v>
       </c>
       <c r="AM11">
-        <v>0.023316900205108227</v>
+        <v>3.6104959668430239e-11</v>
       </c>
       <c r="AN11">
-        <v>0.023316900205108227</v>
+        <v>3.6104959668430239e-11</v>
       </c>
       <c r="AO11">
-        <v>0.023390859979869356</v>
+        <v>0.0007093788921582869</v>
       </c>
       <c r="AP11">
-        <v>0.023316900205108227</v>
+        <v>3.6104959668430239e-11</v>
       </c>
       <c r="AQ11">
-        <v>0.023316900205108227</v>
+        <v>3.6104959668430239e-11</v>
       </c>
       <c r="AR11">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="C12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="D12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="E12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="F12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="G12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="H12">
-        <v>0.48594311255029238</v>
+        <v>0.49058873413250587</v>
       </c>
       <c r="I12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="J12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="K12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="L12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="M12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="N12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="O12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="P12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="Q12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="R12">
-        <v>7.2350023518093585e-11</v>
+        <v>1.7454146082898959e-10</v>
       </c>
       <c r="S12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="T12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="U12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="V12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="W12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="X12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="Y12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="Z12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="AA12">
-        <v>2.8064241455460129e-06</v>
+        <v>2.581840686908838e-06</v>
       </c>
       <c r="AB12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="AC12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="AD12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="AE12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="AF12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="AG12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="AH12">
-        <v>0.51405362558080392</v>
+        <v>0.50940814256663602</v>
       </c>
       <c r="AI12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="AJ12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="AK12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="AL12">
-        <v>1.0662683106299858e-10</v>
+        <v>1.3860152339548218e-10</v>
       </c>
       <c r="AM12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="AN12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="AO12">
-        <v>4.5526498217320594e-07</v>
+        <v>5.4114622881156236e-07</v>
       </c>
       <c r="AP12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="AQ12">
-        <v>2.220439632364271e-14</v>
+        <v>2.2204421717721184e-14</v>
       </c>
       <c r="AR12">
         <v>33</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.7469011768484034e-11</v>
+        <v>2.2204175485007126e-14</v>
       </c>
       <c r="C13">
-        <v>1.7469011768484034e-11</v>
+        <v>2.2204175485007126e-14</v>
       </c>
       <c r="D13">
-        <v>1.7469011768484034e-11</v>
+        <v>2.2204175485007126e-14</v>
       </c>
       <c r="E13">
-        <v>1.7469011768484034e-11</v>
+        <v>2.2204175485007126e-14</v>
       </c>
       <c r="F13">
-        <v>1.7469011768484034e-11</v>
+        <v>2.2204175485007126e-14</v>
       </c>
       <c r="G13">
-        <v>1.7469011768484009e-11</v>
+        <v>2.2204175485007126e-14</v>
       </c>
       <c r="H13">
-        <v>0.14585150521155341</v>
+        <v>0.0025064718995092307</v>
       </c>
       <c r="I13">
-        <v>1.7469011768484009e-11</v>
+        <v>2.2204175485007126e-14</v>
       </c>
       <c r="J13">
-        <v>1.7469011768484009e-11</v>
+        <v>2.2204175485007126e-14</v>
       </c>
       <c r="K13">
-        <v>0.17316607940783879</v>
+        <v>0.97669580851321292</v>
       </c>
       <c r="L13">
-        <v>7.7650835113487264e-05</v>
+        <v>8.4783707774072182e-09</v>
       </c>
       <c r="M13">
-        <v>1.7469011768484018e-11</v>
+        <v>2.2204175485007126e-14</v>
       </c>
       <c r="N13">
-        <v>1.7469011768484018e-11</v>
+        <v>2.2204175485007126e-14</v>
       </c>
       <c r="O13">
-        <v>1.7469011768484009e-11</v>
+        <v>2.2204175485007126e-14</v>
       </c>
       <c r="P13">
-        <v>0.08714298159832097</v>
+        <v>4.84756161414922e-06</v>
       </c>
       <c r="Q13">
-        <v>1.7469011768483992e-11</v>
+        <v>2.2204175485007126e-14</v>
       </c>
       <c r="R13">
-        <v>2.9541991196097323e-06</v>
+        <v>1.0332556453889058e-10</v>
       </c>
       <c r="S13">
-        <v>1.7469011768483902e-11</v>
+        <v>2.2204175485007126e-14</v>
       </c>
       <c r="T13">
-        <v>1.7469011768483954e-11</v>
+        <v>2.2204175485007126e-14</v>
       </c>
       <c r="U13">
-        <v>1.7469011768483954e-11</v>
+        <v>2.2204175485007126e-14</v>
       </c>
       <c r="V13">
-        <v>1.7469011768483902e-11</v>
+        <v>2.2204175485007126e-14</v>
       </c>
       <c r="W13">
-        <v>0.16433412654498561</v>
+        <v>0.0099648295138662149</v>
       </c>
       <c r="X13">
-        <v>1.7469011768483925e-11</v>
+        <v>2.2204175485007126e-14</v>
       </c>
       <c r="Y13">
-        <v>1.7469011768483925e-11</v>
+        <v>2.2204175485007126e-14</v>
       </c>
       <c r="Z13">
-        <v>1.7469011768483925e-11</v>
+        <v>2.2204175485007126e-14</v>
       </c>
       <c r="AA13">
-        <v>0.04970997852083426</v>
+        <v>0.00035931128140599379</v>
       </c>
       <c r="AB13">
-        <v>1.7469011768483902e-11</v>
+        <v>2.2204175485007126e-14</v>
       </c>
       <c r="AC13">
-        <v>1.7469011768483902e-11</v>
+        <v>2.2204175485007126e-14</v>
       </c>
       <c r="AD13">
-        <v>0.00091834690910512864</v>
+        <v>3.8004256458540707e-08</v>
       </c>
       <c r="AE13">
-        <v>1.7469011768483889e-11</v>
+        <v>2.2204175485007126e-14</v>
       </c>
       <c r="AF13">
-        <v>0.16433412654498558</v>
+        <v>0.009964829513866201</v>
       </c>
       <c r="AG13">
-        <v>1.7469011768483902e-11</v>
+        <v>2.2204175485007126e-14</v>
       </c>
       <c r="AH13">
-        <v>1.7469011768483902e-11</v>
+        <v>2.2204175485007126e-14</v>
       </c>
       <c r="AI13">
-        <v>1.7469011768483928e-11</v>
+        <v>2.2204175485007126e-14</v>
       </c>
       <c r="AJ13">
-        <v>1.7469011768483928e-11</v>
+        <v>2.2204175485007126e-14</v>
       </c>
       <c r="AK13">
-        <v>1.746901176848398e-11</v>
+        <v>2.2204175485007126e-14</v>
       </c>
       <c r="AL13">
-        <v>0.070061591934073436</v>
+        <v>7.8551885152070307e-06</v>
       </c>
       <c r="AM13">
-        <v>1.746901176848398e-11</v>
+        <v>2.2204175485007126e-14</v>
       </c>
       <c r="AN13">
-        <v>1.7469011768483928e-11</v>
+        <v>2.2204175485007126e-14</v>
       </c>
       <c r="AO13">
-        <v>0.14440065775253072</v>
+        <v>0.00049599994136881483</v>
       </c>
       <c r="AP13">
-        <v>1.7469011768483928e-11</v>
+        <v>2.2204175485007126e-14</v>
       </c>
       <c r="AQ13">
-        <v>1.7469011768483928e-11</v>
+        <v>2.2204175485007126e-14</v>
       </c>
       <c r="AR13">
         <v>10</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>5.615625190255997e-12</v>
+        <v>2.959218581634092e-11</v>
       </c>
       <c r="C14">
-        <v>5.615625190255997e-12</v>
+        <v>2.959218581634092e-11</v>
       </c>
       <c r="D14">
-        <v>5.615625190255997e-12</v>
+        <v>2.959218581634092e-11</v>
       </c>
       <c r="E14">
-        <v>5.6156251902559865e-12</v>
+        <v>2.9592185816340869e-11</v>
       </c>
       <c r="F14">
-        <v>5.6156251902559865e-12</v>
+        <v>2.9592185816340869e-11</v>
       </c>
       <c r="G14">
-        <v>5.6156251902559865e-12</v>
+        <v>2.959218581634092e-11</v>
       </c>
       <c r="H14">
-        <v>0.06730043850440838</v>
+        <v>0.1945068565400617</v>
       </c>
       <c r="I14">
-        <v>5.6156251902559865e-12</v>
+        <v>2.959218581634092e-11</v>
       </c>
       <c r="J14">
-        <v>5.6156251902559865e-12</v>
+        <v>2.9592185816340869e-11</v>
       </c>
       <c r="K14">
-        <v>5.6156251902559921e-12</v>
+        <v>2.9592185816340946e-11</v>
       </c>
       <c r="L14">
-        <v>5.6156251902559921e-12</v>
+        <v>2.9592185816344507e-11</v>
       </c>
       <c r="M14">
-        <v>0.19440541463933017</v>
+        <v>0.26780435193506064</v>
       </c>
       <c r="N14">
-        <v>5.6156251902559841e-12</v>
+        <v>2.9592185816342756e-11</v>
       </c>
       <c r="O14">
-        <v>5.6156251902559841e-12</v>
+        <v>2.9592185816342807e-11</v>
       </c>
       <c r="P14">
-        <v>5.6156251902559841e-12</v>
+        <v>2.9592185816342807e-11</v>
       </c>
       <c r="Q14">
-        <v>5.6156251902559841e-12</v>
+        <v>2.9592185816342807e-11</v>
       </c>
       <c r="R14">
-        <v>2.5322565567644049e-09</v>
+        <v>9.7982267572858385e-10</v>
       </c>
       <c r="S14">
-        <v>5.6156251902559905e-12</v>
+        <v>2.9592185816342827e-11</v>
       </c>
       <c r="T14">
-        <v>5.6156251902559905e-12</v>
+        <v>2.9592185816342833e-11</v>
       </c>
       <c r="U14">
-        <v>0.19440541463933037</v>
+        <v>2.9592185816342833e-11</v>
       </c>
       <c r="V14">
-        <v>5.6156251902559913e-12</v>
+        <v>2.9592185816342833e-11</v>
       </c>
       <c r="W14">
-        <v>5.6156251902559913e-12</v>
+        <v>2.9592185816342833e-11</v>
       </c>
       <c r="X14">
-        <v>5.6156251902559913e-12</v>
+        <v>2.9592185816342833e-11</v>
       </c>
       <c r="Y14">
-        <v>5.6156251902559913e-12</v>
+        <v>2.9592185816342833e-11</v>
       </c>
       <c r="Z14">
-        <v>5.6156251902559913e-12</v>
+        <v>2.9592185816342827e-11</v>
       </c>
       <c r="AA14">
-        <v>0.00031515530143997423</v>
+        <v>0.0016716172226163132</v>
       </c>
       <c r="AB14">
-        <v>5.6156251902559913e-12</v>
+        <v>2.9592185816342827e-11</v>
       </c>
       <c r="AC14">
-        <v>0.18393885372867738</v>
+        <v>0.25823460576040097</v>
       </c>
       <c r="AD14">
-        <v>3.0941555168514118e-11</v>
+        <v>1.6350366440829234e-10</v>
       </c>
       <c r="AE14">
-        <v>5.6156251902559913e-12</v>
+        <v>2.9592185816342795e-11</v>
       </c>
       <c r="AF14">
-        <v>5.6156251902559913e-12</v>
+        <v>2.9592185816342814e-11</v>
       </c>
       <c r="AG14">
-        <v>5.6156251902559913e-12</v>
+        <v>2.9592185816342814e-11</v>
       </c>
       <c r="AH14">
-        <v>0.19440541463933037</v>
+        <v>2.9592185816342814e-11</v>
       </c>
       <c r="AI14">
-        <v>5.6156251902559881e-12</v>
+        <v>2.959218581634273e-11</v>
       </c>
       <c r="AJ14">
-        <v>5.6156251902559881e-12</v>
+        <v>2.9592185816342652e-11</v>
       </c>
       <c r="AK14">
-        <v>5.6156251902559881e-12</v>
+        <v>2.9592185816342652e-11</v>
       </c>
       <c r="AL14">
-        <v>0.00011241499574556602</v>
+        <v>0.0010087529222516242</v>
       </c>
       <c r="AM14">
-        <v>5.6156251902559913e-12</v>
+        <v>2.9592185816342652e-11</v>
       </c>
       <c r="AN14">
-        <v>5.6156251902559913e-12</v>
+        <v>2.959218581634273e-11</v>
       </c>
       <c r="AO14">
-        <v>0.16511689080883982</v>
+        <v>0.27677381347014857</v>
       </c>
       <c r="AP14">
-        <v>5.6156251902559913e-12</v>
+        <v>2.959218581634273e-11</v>
       </c>
       <c r="AQ14">
-        <v>5.6156251902559913e-12</v>
+        <v>2.9592185816342575e-11</v>
       </c>
       <c r="AR14">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>5.9447824936823837e-14</v>
+        <v>1.3209642428694665e-13</v>
       </c>
       <c r="C15">
-        <v>5.9447824936823837e-14</v>
+        <v>1.3209642428694665e-13</v>
       </c>
       <c r="D15">
-        <v>5.9447824936823837e-14</v>
+        <v>1.3209642428694665e-13</v>
       </c>
       <c r="E15">
-        <v>5.9447824936823773e-14</v>
+        <v>1.320964242869466e-13</v>
       </c>
       <c r="F15">
-        <v>5.9447824936823773e-14</v>
+        <v>1.320964242869466e-13</v>
       </c>
       <c r="G15">
-        <v>5.9447824936823837e-14</v>
+        <v>1.3209642428694648e-13</v>
       </c>
       <c r="H15">
-        <v>0.12816224211321089</v>
+        <v>0.18571273879637426</v>
       </c>
       <c r="I15">
-        <v>5.9447824936823837e-14</v>
+        <v>1.3209642428694648e-13</v>
       </c>
       <c r="J15">
-        <v>5.9447824936823773e-14</v>
+        <v>1.3209642428694648e-13</v>
       </c>
       <c r="K15">
-        <v>5.9447824936823773e-14</v>
+        <v>1.3209642428694648e-13</v>
       </c>
       <c r="L15">
-        <v>1.320200004848566e-11</v>
+        <v>1.5046621909886661e-10</v>
       </c>
       <c r="M15">
-        <v>5.9447824936823773e-14</v>
+        <v>1.3209642428694648e-13</v>
       </c>
       <c r="N15">
-        <v>5.9447824936823773e-14</v>
+        <v>1.3209642428694648e-13</v>
       </c>
       <c r="O15">
-        <v>5.9447824936823773e-14</v>
+        <v>1.3209642428694648e-13</v>
       </c>
       <c r="P15">
-        <v>1.3391914183258672e-06</v>
+        <v>2.5230348416029345e-05</v>
       </c>
       <c r="Q15">
-        <v>5.9447824936823773e-14</v>
+        <v>1.3209642428694648e-13</v>
       </c>
       <c r="R15">
-        <v>6.9487676623824499e-06</v>
+        <v>2.4421749057884577e-06</v>
       </c>
       <c r="S15">
-        <v>5.9447824936823824e-14</v>
+        <v>1.3209642428694648e-13</v>
       </c>
       <c r="T15">
-        <v>5.9447824936823824e-14</v>
+        <v>1.3209642428694648e-13</v>
       </c>
       <c r="U15">
-        <v>5.9447824936823824e-14</v>
+        <v>1.3209642428694648e-13</v>
       </c>
       <c r="V15">
-        <v>5.9447824936823824e-14</v>
+        <v>1.3209642428694648e-13</v>
       </c>
       <c r="W15">
-        <v>5.9447824936823824e-14</v>
+        <v>1.3209642428694648e-13</v>
       </c>
       <c r="X15">
-        <v>5.9447824936823824e-14</v>
+        <v>1.3209642428694648e-13</v>
       </c>
       <c r="Y15">
-        <v>5.9447824936823824e-14</v>
+        <v>1.3209642428694648e-13</v>
       </c>
       <c r="Z15">
-        <v>5.9447824936823824e-14</v>
+        <v>1.3209642428694648e-13</v>
       </c>
       <c r="AA15">
-        <v>3.2348396123457721e-05</v>
+        <v>4.8742292021338285e-05</v>
       </c>
       <c r="AB15">
-        <v>5.9447824936823824e-14</v>
+        <v>1.3209642428694648e-13</v>
       </c>
       <c r="AC15">
-        <v>5.9447824936823824e-14</v>
+        <v>1.3209642428694648e-13</v>
       </c>
       <c r="AD15">
-        <v>7.0486034493828217e-07</v>
+        <v>1.8039731997944689e-06</v>
       </c>
       <c r="AE15">
-        <v>5.9447824936823824e-14</v>
+        <v>1.3209642428694648e-13</v>
       </c>
       <c r="AF15">
-        <v>0.045094991934498709</v>
+        <v>0.087169236617697571</v>
       </c>
       <c r="AG15">
-        <v>5.9447824936823824e-14</v>
+        <v>1.3209642428694663e-13</v>
       </c>
       <c r="AH15">
-        <v>5.9447824936823824e-14</v>
+        <v>1.3209642428694663e-13</v>
       </c>
       <c r="AI15">
-        <v>5.9447824936823837e-14</v>
+        <v>1.3209642428694655e-13</v>
       </c>
       <c r="AJ15">
-        <v>5.9447824936823837e-14</v>
+        <v>1.3209642428694655e-13</v>
       </c>
       <c r="AK15">
-        <v>5.9447824936823837e-14</v>
+        <v>1.3209642428694655e-13</v>
       </c>
       <c r="AL15">
-        <v>3.7683853417546605e-06</v>
+        <v>9.1478587843025997e-06</v>
       </c>
       <c r="AM15">
-        <v>5.9447824936823837e-14</v>
+        <v>1.3209642428694655e-13</v>
       </c>
       <c r="AN15">
-        <v>5.9447824936823837e-14</v>
+        <v>1.3209642428694655e-13</v>
       </c>
       <c r="AO15">
-        <v>0.82669765633623549</v>
+        <v>0.72703065778377551</v>
       </c>
       <c r="AP15">
-        <v>5.9447824936823837e-14</v>
+        <v>1.3209642428694655e-13</v>
       </c>
       <c r="AQ15">
-        <v>5.9447824936823837e-14</v>
+        <v>1.3209642428694655e-13</v>
       </c>
       <c r="AR15">
         <v>40</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>3.9640087761255865e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="C16">
-        <v>3.9640087761255865e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="D16">
-        <v>3.9640087761255865e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="E16">
-        <v>3.964008776125584e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="F16">
-        <v>3.964008776125584e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="G16">
-        <v>3.9640087761255764e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="H16">
-        <v>0.95827048572211992</v>
+        <v>0.97115380436432619</v>
       </c>
       <c r="I16">
-        <v>3.9640087761255764e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="J16">
-        <v>3.9640087761255764e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="K16">
-        <v>3.9640087761255764e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="L16">
-        <v>2.0307471687517955e-12</v>
+        <v>3.7161566520239881e-13</v>
       </c>
       <c r="M16">
-        <v>3.964008776125579e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="N16">
-        <v>3.9640087761255865e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="O16">
-        <v>3.964008776125579e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="P16">
-        <v>2.2517410844239528e-09</v>
+        <v>4.0018411508381703e-11</v>
       </c>
       <c r="Q16">
-        <v>3.9640087761255727e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="R16">
-        <v>1.2531699672736779e-12</v>
+        <v>1.152957060787112e-12</v>
       </c>
       <c r="S16">
-        <v>3.9640087761255752e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="T16">
-        <v>3.964008776125579e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="U16">
-        <v>3.964008776125579e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="V16">
-        <v>3.964008776125579e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="W16">
-        <v>3.964008776125579e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="X16">
-        <v>3.964008776125579e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="Y16">
-        <v>3.964008776125579e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="Z16">
-        <v>3.9640087761255752e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="AA16">
-        <v>0.00046044442293102507</v>
+        <v>0.00029741420433561719</v>
       </c>
       <c r="AB16">
-        <v>3.9640087761255752e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="AC16">
-        <v>3.9640087761255752e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="AD16">
-        <v>1.1446744937670188e-12</v>
+        <v>1.9561851130049537e-13</v>
       </c>
       <c r="AE16">
-        <v>3.9640087761255752e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="AF16">
-        <v>3.964008776125579e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="AG16">
-        <v>3.9640087761255752e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="AH16">
-        <v>0.041248424322398565</v>
+        <v>0.028543020013470696</v>
       </c>
       <c r="AI16">
-        <v>3.9640087761255884e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="AJ16">
-        <v>3.9640087761255809e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="AK16">
-        <v>3.9640087761255859e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="AL16">
-        <v>9.444558035038298e-09</v>
+        <v>3.0272691827434203e-09</v>
       </c>
       <c r="AM16">
-        <v>3.9640087761255859e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="AN16">
-        <v>3.9640087761255859e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="AO16">
-        <v>2.0633830514651612e-05</v>
+        <v>5.7583481270095183e-06</v>
       </c>
       <c r="AP16">
-        <v>3.9640087761255859e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="AQ16">
-        <v>3.9640087761255859e-14</v>
+        <v>2.2204013306107364e-14</v>
       </c>
       <c r="AR16">
         <v>7</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2.0723581003015138e-09</v>
+        <v>1.7783473392102041e-11</v>
       </c>
       <c r="C17">
-        <v>2.0723581003015138e-09</v>
+        <v>1.7783473392102041e-11</v>
       </c>
       <c r="D17">
-        <v>2.0723581003015138e-09</v>
+        <v>1.7783473392102029e-11</v>
       </c>
       <c r="E17">
-        <v>2.0723581003014994e-09</v>
+        <v>1.7783473392102003e-11</v>
       </c>
       <c r="F17">
-        <v>2.0723581003014994e-09</v>
+        <v>1.7783473392102003e-11</v>
       </c>
       <c r="G17">
-        <v>2.072358100301506e-09</v>
+        <v>1.7783473392101967e-11</v>
       </c>
       <c r="H17">
-        <v>0.23770881508792693</v>
+        <v>0.32831982121694731</v>
       </c>
       <c r="I17">
-        <v>2.072358100301506e-09</v>
+        <v>1.7783473392101967e-11</v>
       </c>
       <c r="J17">
-        <v>2.0723581003015047e-09</v>
+        <v>1.7783473392101967e-11</v>
       </c>
       <c r="K17">
-        <v>2.0723581003014977e-09</v>
+        <v>1.7783473392102006e-11</v>
       </c>
       <c r="L17">
-        <v>0.00042594955392198002</v>
+        <v>3.0695122871453331e-05</v>
       </c>
       <c r="M17">
-        <v>2.0723581003014965e-09</v>
+        <v>1.7783473392102006e-11</v>
       </c>
       <c r="N17">
-        <v>2.0723581003014985e-09</v>
+        <v>0.25643593104213352</v>
       </c>
       <c r="O17">
-        <v>2.0723581003014985e-09</v>
+        <v>1.7783473392102006e-11</v>
       </c>
       <c r="P17">
-        <v>0.1755281124863651</v>
+        <v>0.18267101360603957</v>
       </c>
       <c r="Q17">
-        <v>2.0723581003014977e-09</v>
+        <v>1.7783473392102006e-11</v>
       </c>
       <c r="R17">
-        <v>0.0005587589492284463</v>
+        <v>4.2020333928590377e-06</v>
       </c>
       <c r="S17">
-        <v>2.0723581003017256e-09</v>
+        <v>1.7783473392101915e-11</v>
       </c>
       <c r="T17">
-        <v>2.0723581003017256e-09</v>
+        <v>1.7783473392101925e-11</v>
       </c>
       <c r="U17">
-        <v>2.0723581003017256e-09</v>
+        <v>1.7783473392101925e-11</v>
       </c>
       <c r="V17">
-        <v>2.0723581003017256e-09</v>
+        <v>1.7783473392101925e-11</v>
       </c>
       <c r="W17">
-        <v>2.0723581003017256e-09</v>
+        <v>1.7783473392101925e-11</v>
       </c>
       <c r="X17">
-        <v>2.0723581003017256e-09</v>
+        <v>1.7783473392101925e-11</v>
       </c>
       <c r="Y17">
-        <v>2.0723581003017256e-09</v>
+        <v>1.7783473392101925e-11</v>
       </c>
       <c r="Z17">
-        <v>2.0723581003017256e-09</v>
+        <v>1.7783473392101909e-11</v>
       </c>
       <c r="AA17">
-        <v>0.14750014537027403</v>
+        <v>0.021339342773438009</v>
       </c>
       <c r="AB17">
-        <v>2.0723581003017256e-09</v>
+        <v>1.7783473392101909e-11</v>
       </c>
       <c r="AC17">
-        <v>2.0723581003017198e-09</v>
+        <v>1.7783473392101915e-11</v>
       </c>
       <c r="AD17">
-        <v>0.09911752525581688</v>
+        <v>0.0081092925807658926</v>
       </c>
       <c r="AE17">
-        <v>2.0723581003017181e-09</v>
+        <v>1.7783473392101915e-11</v>
       </c>
       <c r="AF17">
-        <v>2.0723581003017198e-09</v>
+        <v>1.7783473392101925e-11</v>
       </c>
       <c r="AG17">
-        <v>2.0723581003017198e-09</v>
+        <v>1.7783473392101925e-11</v>
       </c>
       <c r="AH17">
-        <v>2.0723581003017198e-09</v>
+        <v>1.7783473392101925e-11</v>
       </c>
       <c r="AI17">
-        <v>2.0723581003017194e-09</v>
+        <v>1.7783473392101983e-11</v>
       </c>
       <c r="AJ17">
-        <v>2.0723581003017194e-09</v>
+        <v>1.7783473392101983e-11</v>
       </c>
       <c r="AK17">
-        <v>2.0723581003017198e-09</v>
+        <v>1.7783473392101983e-11</v>
       </c>
       <c r="AL17">
-        <v>0.16317389861231116</v>
+        <v>0.054632568947890515</v>
       </c>
       <c r="AM17">
-        <v>2.0723581003017181e-09</v>
+        <v>1.7783473392101983e-11</v>
       </c>
       <c r="AN17">
-        <v>2.0723581003017181e-09</v>
+        <v>1.7783473392101983e-11</v>
       </c>
       <c r="AO17">
-        <v>0.17598672422397976</v>
+        <v>0.14845713208966685</v>
       </c>
       <c r="AP17">
-        <v>2.0723581003017181e-09</v>
+        <v>1.7783473392102012e-11</v>
       </c>
       <c r="AQ17">
-        <v>2.0723581003017177e-09</v>
+        <v>1.7783473392102012e-11</v>
       </c>
       <c r="AR17">
         <v>7</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>3.6594029921743886e-14</v>
+        <v>2.6059608648890443e-14</v>
       </c>
       <c r="C18">
-        <v>3.6594029921743886e-14</v>
+        <v>2.6059608648890443e-14</v>
       </c>
       <c r="D18">
-        <v>3.6594029921743811e-14</v>
+        <v>2.6059608648890418e-14</v>
       </c>
       <c r="E18">
-        <v>3.6594029921743684e-14</v>
+        <v>2.6059608648890392e-14</v>
       </c>
       <c r="F18">
-        <v>3.6594029921743684e-14</v>
+        <v>2.6059608648890392e-14</v>
       </c>
       <c r="G18">
-        <v>3.6594029921743684e-14</v>
+        <v>2.6059608648890392e-14</v>
       </c>
       <c r="H18">
-        <v>0.97144053896163862</v>
+        <v>0.97647111350538629</v>
       </c>
       <c r="I18">
-        <v>3.6594029921743684e-14</v>
+        <v>2.6059608648890392e-14</v>
       </c>
       <c r="J18">
-        <v>3.6594029921743659e-14</v>
+        <v>2.6059608648890367e-14</v>
       </c>
       <c r="K18">
-        <v>3.6594029921743634e-14</v>
+        <v>2.6059608648890392e-14</v>
       </c>
       <c r="L18">
-        <v>2.1042945834345579e-12</v>
+        <v>1.2361124788949204e-12</v>
       </c>
       <c r="M18">
-        <v>3.6594029921743634e-14</v>
+        <v>2.6059608648890392e-14</v>
       </c>
       <c r="N18">
-        <v>3.6594029921743634e-14</v>
+        <v>2.6059608648890418e-14</v>
       </c>
       <c r="O18">
-        <v>3.6594029921743634e-14</v>
+        <v>2.6059608648890418e-14</v>
       </c>
       <c r="P18">
-        <v>3.6594029921743609e-14</v>
+        <v>2.6059608648890392e-14</v>
       </c>
       <c r="Q18">
-        <v>0.027011434930071781</v>
+        <v>0.021720041960386332</v>
       </c>
       <c r="R18">
-        <v>2.2525012673542027e-09</v>
+        <v>5.6606143064687309e-10</v>
       </c>
       <c r="S18">
-        <v>3.6594029921743893e-14</v>
+        <v>2.6059608648890468e-14</v>
       </c>
       <c r="T18">
-        <v>3.6594029921743918e-14</v>
+        <v>2.6059608648890493e-14</v>
       </c>
       <c r="U18">
-        <v>3.6594029921743918e-14</v>
+        <v>2.6059608648890493e-14</v>
       </c>
       <c r="V18">
-        <v>3.6594029921743918e-14</v>
+        <v>2.6059608648890493e-14</v>
       </c>
       <c r="W18">
-        <v>3.6594029921743918e-14</v>
+        <v>2.6059608648890493e-14</v>
       </c>
       <c r="X18">
-        <v>3.6594029921743918e-14</v>
+        <v>2.6059608648890493e-14</v>
       </c>
       <c r="Y18">
-        <v>3.6594029921743918e-14</v>
+        <v>2.6059608648890493e-14</v>
       </c>
       <c r="Z18">
-        <v>3.6594029921743893e-14</v>
+        <v>2.6059608648890468e-14</v>
       </c>
       <c r="AA18">
-        <v>0.001545354732917297</v>
+        <v>0.0018068887902107497</v>
       </c>
       <c r="AB18">
-        <v>3.6594029921743918e-14</v>
+        <v>2.6059608648890468e-14</v>
       </c>
       <c r="AC18">
-        <v>3.6594029921743918e-14</v>
+        <v>2.6059608648890468e-14</v>
       </c>
       <c r="AD18">
-        <v>1.819887908796696e-11</v>
+        <v>1.2345321369571908e-11</v>
       </c>
       <c r="AE18">
-        <v>3.6594029921743867e-14</v>
+        <v>2.6059608648890468e-14</v>
       </c>
       <c r="AF18">
-        <v>3.6594029921743893e-14</v>
+        <v>2.6059608648890493e-14</v>
       </c>
       <c r="AG18">
-        <v>3.6594029921743893e-14</v>
+        <v>2.6059608648890493e-14</v>
       </c>
       <c r="AH18">
-        <v>3.6594029921743893e-14</v>
+        <v>2.6059608648890493e-14</v>
       </c>
       <c r="AI18">
-        <v>3.6594029921743741e-14</v>
+        <v>2.6059608648890638e-14</v>
       </c>
       <c r="AJ18">
-        <v>3.6594029921743716e-14</v>
+        <v>2.6059608648890638e-14</v>
       </c>
       <c r="AK18">
-        <v>3.6594029921743766e-14</v>
+        <v>2.6059608648890638e-14</v>
       </c>
       <c r="AL18">
-        <v>1.2052646793544498e-08</v>
+        <v>1.0420061798624342e-08</v>
       </c>
       <c r="AM18">
-        <v>3.6594029921743792e-14</v>
+        <v>2.6059608648890638e-14</v>
       </c>
       <c r="AN18">
-        <v>3.6594029921743792e-14</v>
+        <v>2.6059608648890638e-14</v>
       </c>
       <c r="AO18">
-        <v>2.6570486754545558e-06</v>
+        <v>1.94474342517162e-06</v>
       </c>
       <c r="AP18">
-        <v>3.6594029921743766e-14</v>
+        <v>2.6059608648890638e-14</v>
       </c>
       <c r="AQ18">
-        <v>3.6594029921743766e-14</v>
+        <v>2.6059608648890638e-14</v>
       </c>
       <c r="AR18">
         <v>7</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.99343401141737886</v>
+        <v>0.99319761715597776</v>
       </c>
       <c r="C19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="D19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="E19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="F19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="G19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="H19">
-        <v>0.0046250449057617955</v>
+        <v>0.0050883464314446826</v>
       </c>
       <c r="I19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="J19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="K19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="L19">
-        <v>1.7745944867226582e-09</v>
+        <v>2.5646043948135595e-09</v>
       </c>
       <c r="M19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="N19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="O19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="P19">
-        <v>2.4277474724871615e-07</v>
+        <v>2.5990433672516714e-07</v>
       </c>
       <c r="Q19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="R19">
-        <v>8.1757507516506478e-06</v>
+        <v>3.0234883228844691e-05</v>
       </c>
       <c r="S19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="T19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="U19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="V19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="W19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="X19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="Y19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="Z19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="AA19">
-        <v>0.0017277158164951624</v>
+        <v>0.001488723687989763</v>
       </c>
       <c r="AB19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="AC19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="AD19">
-        <v>5.7006434014916523e-07</v>
+        <v>7.7352628691926447e-07</v>
       </c>
       <c r="AE19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="AF19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="AG19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="AH19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="AI19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="AJ19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="AK19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="AL19">
-        <v>3.3855357484280393e-06</v>
+        <v>6.44885531641413e-06</v>
       </c>
       <c r="AM19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="AN19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="AO19">
-        <v>0.00020085195944948798</v>
+        <v>0.0001875929900817609</v>
       </c>
       <c r="AP19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="AQ19">
-        <v>2.2202394043568997e-14</v>
+        <v>2.2202393250973365e-14</v>
       </c>
       <c r="AR19">
         <v>1</v>
